--- a/doc/Subjective Evaluation.xlsx
+++ b/doc/Subjective Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssimoes\Documents\GitRepos\MMIRMusicRecommender\doc\subjective evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernardo\OneDrive - Universidade de Coimbra\Desktop\UNI\Git_Repo\Multimedia TP2\MMIRMusicRecommender\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A9940-AB93-4020-BBB0-23DA857E5C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ADCA62-B94D-402D-9EEF-9E11FDA3AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88C593F1-7AF5-430A-A3F2-E7FE0FF13C9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{88C593F1-7AF5-430A-A3F2-E7FE0FF13C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -480,22 +480,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Verificar Célula" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E1B9E6-B0FF-4E99-81BB-013559980CEC}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,52 +835,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="O1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="O1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,22 +934,30 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
       <c r="L3" s="1">
         <v>5</v>
       </c>
@@ -971,22 +979,30 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
       <c r="L4" s="1">
         <v>5</v>
       </c>
@@ -1008,22 +1024,30 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
@@ -1045,22 +1069,30 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
@@ -1082,22 +1114,30 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -1119,22 +1159,30 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
       <c r="L8" s="1">
         <v>2</v>
       </c>
@@ -1156,22 +1204,30 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
@@ -1193,22 +1249,30 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
       <c r="I10" s="1">
         <v>2</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
       <c r="L10" s="1">
         <v>4</v>
       </c>
@@ -1230,22 +1294,30 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
       <c r="L11" s="1">
         <v>5</v>
       </c>
@@ -1267,22 +1339,30 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
       <c r="C12" s="1">
         <v>5</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
       <c r="L12" s="1">
         <v>4</v>
       </c>
@@ -1304,22 +1384,30 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
       <c r="I13" s="1">
         <v>3</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
       <c r="L13" s="1">
         <v>5</v>
       </c>
@@ -1341,22 +1429,30 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
       <c r="L14" s="1">
         <v>3</v>
       </c>
@@ -1378,22 +1474,30 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
       <c r="L15" s="1">
         <v>5</v>
       </c>
@@ -1415,22 +1519,30 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
@@ -1452,22 +1564,30 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
       <c r="F17" s="1">
         <v>4</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>
@@ -1489,22 +1609,30 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
       <c r="I18" s="1">
         <v>5</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
       <c r="L18" s="1">
         <v>5</v>
       </c>
@@ -1526,22 +1654,30 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
       <c r="I19" s="1">
         <v>3</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
       <c r="L19" s="1">
         <v>4</v>
       </c>
@@ -1563,22 +1699,30 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
       <c r="I20" s="1">
         <v>5</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
       <c r="L20" s="1">
         <v>5</v>
       </c>
@@ -1600,22 +1744,30 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
       <c r="I21" s="1">
         <v>3</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
       <c r="L21" s="1">
         <v>4</v>
       </c>
@@ -1637,22 +1789,30 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
       <c r="L22" s="1">
         <v>4</v>
       </c>
@@ -1672,6 +1832,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
@@ -1680,7 +1841,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Subjective Evaluation.xlsx
+++ b/doc/Subjective Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernardo\OneDrive - Universidade de Coimbra\Desktop\UNI\Git_Repo\Multimedia TP2\MMIRMusicRecommender\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Faculdade\MMIRMusicRecommender\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ADCA62-B94D-402D-9EEF-9E11FDA3AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387439F5-D183-4069-B408-25EDC116C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{88C593F1-7AF5-430A-A3F2-E7FE0FF13C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88C593F1-7AF5-430A-A3F2-E7FE0FF13C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -494,8 +493,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Verificar Célula" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,7 +510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -809,32 +808,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E1B9E6-B0FF-4E99-81BB-013559980CEC}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -879,7 +878,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -930,7 +929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -940,28 +939,36 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
       <c r="H3" s="1">
         <v>4</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
       <c r="K3" s="1">
         <v>5</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
       <c r="O3" t="s">
         <v>72</v>
       </c>
@@ -975,7 +982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -985,28 +992,36 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="K4" s="1">
         <v>5</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
       <c r="O4" t="s">
         <v>73</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1030,28 +1045,36 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
       <c r="H5" s="1">
         <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
       <c r="K5" s="1">
         <v>5</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
       <c r="O5" t="s">
         <v>74</v>
       </c>
@@ -1065,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1075,28 +1098,36 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1">
         <v>5</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
       <c r="O6" t="s">
         <v>75</v>
       </c>
@@ -1110,7 +1141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1120,28 +1151,36 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
       <c r="K7" s="1">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
       <c r="O7" t="s">
         <v>76</v>
       </c>
@@ -1155,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1165,28 +1204,36 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
       <c r="O8" t="s">
         <v>77</v>
       </c>
@@ -1200,7 +1247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1210,28 +1257,36 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
       <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
       <c r="K9" s="1">
         <v>5</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
       <c r="O9" t="s">
         <v>78</v>
       </c>
@@ -1245,7 +1300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1255,28 +1310,36 @@
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
       <c r="H10" s="1">
         <v>2</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
       <c r="K10" s="1">
         <v>3</v>
       </c>
       <c r="L10" s="1">
         <v>4</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
       <c r="O10" t="s">
         <v>79</v>
       </c>
@@ -1290,7 +1353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1300,28 +1363,36 @@
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
       <c r="K11" s="1">
         <v>5</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
       <c r="O11" t="s">
         <v>80</v>
       </c>
@@ -1335,7 +1406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1345,28 +1416,36 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>4</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
       <c r="O12" t="s">
         <v>81</v>
       </c>
@@ -1380,7 +1459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1390,28 +1469,36 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
       <c r="K13" s="1">
         <v>5</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
       <c r="O13" t="s">
         <v>82</v>
       </c>
@@ -1425,7 +1512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1435,28 +1522,36 @@
       <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
       <c r="H14" s="1">
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>3</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
       <c r="O14" t="s">
         <v>83</v>
       </c>
@@ -1470,7 +1565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1480,28 +1575,36 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
       <c r="E15" s="1">
         <v>3</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1">
         <v>2</v>
       </c>
       <c r="L15" s="1">
         <v>5</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
       <c r="O15" t="s">
         <v>84</v>
       </c>
@@ -1515,7 +1618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1525,28 +1628,36 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
       <c r="K16" s="1">
         <v>5</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
       <c r="O16" t="s">
         <v>85</v>
       </c>
@@ -1560,7 +1671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1570,28 +1681,36 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="O17" t="s">
         <v>86</v>
       </c>
@@ -1605,7 +1724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1615,28 +1734,36 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
       <c r="K18" s="1">
         <v>2</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
       <c r="O18" t="s">
         <v>87</v>
       </c>
@@ -1650,7 +1777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1660,28 +1787,36 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1">
         <v>5</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
       <c r="K19" s="1">
         <v>4</v>
       </c>
       <c r="L19" s="1">
         <v>4</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
       <c r="O19" t="s">
         <v>88</v>
       </c>
@@ -1695,7 +1830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1705,28 +1840,36 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
       <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
       <c r="H20" s="1">
         <v>4</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
       <c r="K20" s="1">
         <v>5</v>
       </c>
       <c r="L20" s="1">
         <v>5</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
       <c r="O20" t="s">
         <v>89</v>
       </c>
@@ -1740,7 +1883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1750,28 +1893,36 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
       <c r="H21" s="1">
         <v>4</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
       <c r="K21" s="1">
         <v>5</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
       <c r="O21" t="s">
         <v>90</v>
       </c>
@@ -1785,7 +1936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1795,28 +1946,36 @@
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1">
         <v>4</v>
       </c>
       <c r="L22" s="1">
         <v>4</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
       <c r="O22" t="s">
         <v>91</v>
       </c>
